--- a/data/20230320_P1/20230320_P1_plate.xlsx
+++ b/data/20230320_P1/20230320_P1_plate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\howey024\Documents\PrionAnalysis\RTQuicCode\RT-Quic Analysis KH\data\P1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\High Speed Code Storage\RTQuicCode\data\20230320_P1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF8F713-641A-469E-BB85-D9109D0F9A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+    <workbookView xWindow="38280" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,18 +33,12 @@
     <t>Blank</t>
   </si>
   <si>
-    <t>pos</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>neg</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -57,12 +52,18 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>lneg</t>
+  </si>
+  <si>
+    <t>lpos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,7 +145,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,11 +425,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,22 +481,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>1</v>
@@ -518,25 +519,25 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>1</v>
@@ -559,25 +560,25 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>1</v>
@@ -600,25 +601,25 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>1</v>
@@ -641,25 +642,25 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>1</v>
@@ -682,25 +683,25 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>1</v>
@@ -723,25 +724,25 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>1</v>
@@ -764,25 +765,25 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>1</v>

--- a/data/20230320_P1/20230320_P1_plate.xlsx
+++ b/data/20230320_P1/20230320_P1_plate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\High Speed Code Storage\RTQuicCode\data\20230320_P1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF8F713-641A-469E-BB85-D9109D0F9A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB110C4-691C-4FF2-A5A5-523559554F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="15">
   <si>
     <t>A</t>
   </si>
@@ -54,17 +54,29 @@
     <t>H</t>
   </si>
   <si>
-    <t>lneg</t>
-  </si>
-  <si>
-    <t>lpos</t>
+    <t>lneg1</t>
+  </si>
+  <si>
+    <t>lneg2</t>
+  </si>
+  <si>
+    <t>lpos1</t>
+  </si>
+  <si>
+    <t>lpos2</t>
+  </si>
+  <si>
+    <t>lpos3</t>
+  </si>
+  <si>
+    <t>lpos4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +103,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -429,7 +447,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,19 +502,19 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>1</v>
@@ -525,19 +543,19 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>1</v>
@@ -566,19 +584,19 @@
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>1</v>
@@ -607,19 +625,19 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>1</v>
@@ -648,19 +666,19 @@
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>1</v>
@@ -689,19 +707,19 @@
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>1</v>
@@ -730,19 +748,19 @@
         <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>1</v>
@@ -771,19 +789,19 @@
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>1</v>
@@ -805,6 +823,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>